--- a/P3/Results/Data/Gips/Gypsum6g/Results/OTResults.xlsx
+++ b/P3/Results/Data/Gips/Gypsum6g/Results/OTResults.xlsx
@@ -542,10 +542,10 @@
         <v>1.2</v>
       </c>
       <c r="M2" t="n">
-        <v>-4.91</v>
+        <v>-4.89</v>
       </c>
       <c r="N2" t="n">
-        <v>-6.11</v>
+        <v>-6.09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.64</v>
@@ -564,10 +564,10 @@
         <v>16.25</v>
       </c>
       <c r="C3" t="n">
-        <v>14.57</v>
+        <v>14.65</v>
       </c>
       <c r="D3" t="n">
-        <v>19.77</v>
+        <v>19.08</v>
       </c>
       <c r="E3" t="n">
         <v>15.15</v>
@@ -579,10 +579,10 @@
         <v>14.59</v>
       </c>
       <c r="H3" t="n">
-        <v>15.16</v>
+        <v>12.45</v>
       </c>
       <c r="I3" t="n">
-        <v>0.58</v>
+        <v>-2.14</v>
       </c>
       <c r="J3" t="n">
         <v>23.4</v>
@@ -594,10 +594,10 @@
         <v>6.09</v>
       </c>
       <c r="M3" t="n">
-        <v>-33.91</v>
+        <v>-12.32</v>
       </c>
       <c r="N3" t="n">
-        <v>-40</v>
+        <v>-18.41</v>
       </c>
       <c r="O3" t="n">
         <v>5.22</v>
@@ -631,7 +631,7 @@
         <v>-16.22</v>
       </c>
       <c r="H4" t="n">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="I4" t="n">
         <v>19.38</v>
@@ -683,10 +683,10 @@
         <v>-22.6</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.71</v>
+        <v>-1.64</v>
       </c>
       <c r="I5" t="n">
-        <v>20.89</v>
+        <v>20.96</v>
       </c>
       <c r="J5" t="n">
         <v>14.47</v>
@@ -698,10 +698,10 @@
         <v>2.17</v>
       </c>
       <c r="M5" t="n">
-        <v>-10.02</v>
+        <v>-9.960000000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>-12.19</v>
+        <v>-12.13</v>
       </c>
       <c r="O5" t="n">
         <v>-0.03</v>
@@ -723,7 +723,7 @@
         <v>13.56</v>
       </c>
       <c r="D6" t="n">
-        <v>17.42</v>
+        <v>17.41</v>
       </c>
       <c r="E6" t="n">
         <v>15.22</v>
@@ -735,10 +735,10 @@
         <v>-24.85</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.73</v>
+        <v>-1.68</v>
       </c>
       <c r="I6" t="n">
-        <v>23.12</v>
+        <v>23.17</v>
       </c>
       <c r="J6" t="n">
         <v>13.77</v>
@@ -750,10 +750,10 @@
         <v>0.88</v>
       </c>
       <c r="M6" t="n">
-        <v>-9.56</v>
+        <v>-9.449999999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>-10.44</v>
+        <v>-10.33</v>
       </c>
       <c r="O6" t="n">
         <v>-0.73</v>
@@ -772,10 +772,10 @@
         <v>14.68</v>
       </c>
       <c r="C7" t="n">
-        <v>15.35</v>
+        <v>13.92</v>
       </c>
       <c r="D7" t="n">
-        <v>16.53</v>
+        <v>15.75</v>
       </c>
       <c r="E7" t="n">
         <v>14.95</v>
@@ -787,10 +787,10 @@
         <v>-21.49</v>
       </c>
       <c r="H7" t="n">
-        <v>6.94</v>
+        <v>0.21</v>
       </c>
       <c r="I7" t="n">
-        <v>28.43</v>
+        <v>21.69</v>
       </c>
       <c r="J7" t="n">
         <v>12.47</v>
@@ -802,10 +802,10 @@
         <v>-0.18</v>
       </c>
       <c r="M7" t="n">
-        <v>-19.83</v>
+        <v>-40.24</v>
       </c>
       <c r="N7" t="n">
-        <v>-19.65</v>
+        <v>-40.06</v>
       </c>
       <c r="O7" t="n">
         <v>-2.18</v>
@@ -824,10 +824,10 @@
         <v>14.68</v>
       </c>
       <c r="C8" t="n">
-        <v>15.63</v>
+        <v>12.55</v>
       </c>
       <c r="D8" t="n">
-        <v>15.88</v>
+        <v>15.11</v>
       </c>
       <c r="E8" t="n">
         <v>15.15</v>
@@ -839,10 +839,10 @@
         <v>-22.56</v>
       </c>
       <c r="H8" t="n">
-        <v>14.75</v>
+        <v>-19.39</v>
       </c>
       <c r="I8" t="n">
-        <v>37.31</v>
+        <v>3.17</v>
       </c>
       <c r="J8" t="n">
         <v>12.04</v>
@@ -854,10 +854,10 @@
         <v>-0.9399999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>-7.45</v>
+        <v>-108.97</v>
       </c>
       <c r="N8" t="n">
-        <v>-6.51</v>
+        <v>-108.03</v>
       </c>
       <c r="O8" t="n">
         <v>-3.02</v>
@@ -891,10 +891,10 @@
         <v>-24.88</v>
       </c>
       <c r="H9" t="n">
-        <v>4.32</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>29.2</v>
+        <v>29.21</v>
       </c>
       <c r="J9" t="n">
         <v>10.27</v>
@@ -906,10 +906,10 @@
         <v>-0.43</v>
       </c>
       <c r="M9" t="n">
-        <v>-6.99</v>
+        <v>-6.98</v>
       </c>
       <c r="N9" t="n">
-        <v>-6.56</v>
+        <v>-6.55</v>
       </c>
       <c r="O9" t="n">
         <v>-2.65</v>
@@ -943,10 +943,10 @@
         <v>-41.73</v>
       </c>
       <c r="H10" t="n">
-        <v>3.73</v>
+        <v>3.74</v>
       </c>
       <c r="I10" t="n">
-        <v>45.46</v>
+        <v>45.47</v>
       </c>
       <c r="J10" t="n">
         <v>6.2</v>
@@ -976,51 +976,6 @@
           <t>InFront_Camera_light10_exp53424.0_20242011_144633.png</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="C11" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="D11" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="E11" t="n">
-        <v>14.76</v>
-      </c>
-      <c r="F11" t="n">
-        <v>15.36</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-19.78</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="I11" t="n">
-        <v>22.79</v>
-      </c>
-      <c r="J11" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="K11" t="n">
-        <v>32.25</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-0.87</v>
-      </c>
-      <c r="M11" t="n">
-        <v>-30.34</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-29.47</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-2.28</v>
-      </c>
-      <c r="P11" t="n">
-        <v>-1.41</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1054,10 +1009,10 @@
         <v>-19.09</v>
       </c>
       <c r="H13" t="n">
-        <v>6.44</v>
+        <v>6.42</v>
       </c>
       <c r="I13" t="n">
-        <v>25.52</v>
+        <v>25.51</v>
       </c>
       <c r="J13" t="n">
         <v>12.57</v>
@@ -1158,10 +1113,10 @@
         <v>-15.61</v>
       </c>
       <c r="H15" t="n">
-        <v>6.91</v>
+        <v>6.89</v>
       </c>
       <c r="I15" t="n">
-        <v>22.52</v>
+        <v>22.5</v>
       </c>
       <c r="J15" t="n">
         <v>12.74</v>
@@ -1173,10 +1128,10 @@
         <v>-0.11</v>
       </c>
       <c r="M15" t="n">
-        <v>-3.95</v>
+        <v>-3.96</v>
       </c>
       <c r="N15" t="n">
-        <v>-3.84</v>
+        <v>-3.85</v>
       </c>
       <c r="O15" t="n">
         <v>-0.95</v>
